--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.00108307835417</v>
+        <v>104.4492134057161</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.77857009759646</v>
+        <v>142.9120217557212</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.63759779357284</v>
+        <v>129.2726989776761</v>
       </c>
       <c r="AD2" t="n">
-        <v>70001.08307835418</v>
+        <v>104449.2134057161</v>
       </c>
       <c r="AE2" t="n">
-        <v>95778.57009759646</v>
+        <v>142912.0217557212</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589267332727278e-06</v>
+        <v>6.616183400929335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86637.59779357284</v>
+        <v>129272.6989776761</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.03190388081869</v>
+        <v>93.36951540039907</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.08425224547483</v>
+        <v>127.752290143076</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.20042185575799</v>
+        <v>115.5597908733199</v>
       </c>
       <c r="AD2" t="n">
-        <v>68031.90388081869</v>
+        <v>93369.51540039906</v>
       </c>
       <c r="AE2" t="n">
-        <v>93084.25224547483</v>
+        <v>127752.290143076</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.817774911477418e-06</v>
+        <v>7.053041230755635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84200.42185575799</v>
+        <v>115559.7908733199</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.55159500384505</v>
+        <v>94.85355071511535</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90004891781047</v>
+        <v>129.7828127316872</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.55660565270055</v>
+        <v>117.3965232359311</v>
       </c>
       <c r="AD2" t="n">
-        <v>71551.59500384505</v>
+        <v>94853.55071511534</v>
       </c>
       <c r="AE2" t="n">
-        <v>97900.04891781046</v>
+        <v>129782.8127316872</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.97476669472384e-06</v>
+        <v>7.696578126692732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88556.60565270056</v>
+        <v>117396.5232359311</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.10015473701344</v>
+        <v>97.10067592941972</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.07290372727861</v>
+        <v>132.8574285860647</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.57191081017415</v>
+        <v>120.1777020684182</v>
       </c>
       <c r="AD2" t="n">
-        <v>65100.15473701344</v>
+        <v>97100.67592941973</v>
       </c>
       <c r="AE2" t="n">
-        <v>89072.90372727861</v>
+        <v>132857.4285860647</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.035009008265792e-06</v>
+        <v>7.609378745230284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80571.91081017414</v>
+        <v>120177.7020684182</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.84877554352134</v>
+        <v>101.0840220920855</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.93842032598978</v>
+        <v>138.3076185386514</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.6867535440287</v>
+        <v>125.1077335413215</v>
       </c>
       <c r="AD2" t="n">
-        <v>70848.77554352135</v>
+        <v>101084.0220920855</v>
       </c>
       <c r="AE2" t="n">
-        <v>96938.42032598978</v>
+        <v>138307.6185386514</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.704425642363404e-06</v>
+        <v>7.435288229214809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87686.7535440287</v>
+        <v>125107.7335413214</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.43188266683123</v>
+        <v>93.93977147872349</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.63152086631555</v>
+        <v>128.5325396673617</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.69545992752219</v>
+        <v>116.2655744780952</v>
       </c>
       <c r="AD2" t="n">
-        <v>68431.88266683122</v>
+        <v>93939.77147872349</v>
       </c>
       <c r="AE2" t="n">
-        <v>93631.52086631555</v>
+        <v>128532.5396673617</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789381370147957e-06</v>
+        <v>6.982373431892425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84695.4599275222</v>
+        <v>116265.5744780952</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.31679620614823</v>
+        <v>107.9729927843024</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1564956624098</v>
+        <v>147.7334121596751</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.92963011150289</v>
+        <v>133.6339426483421</v>
       </c>
       <c r="AD2" t="n">
-        <v>78316.79620614822</v>
+        <v>107972.9927843024</v>
       </c>
       <c r="AE2" t="n">
-        <v>107156.4956624098</v>
+        <v>147733.4121596752</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442274747879672e-06</v>
+        <v>7.117567626126424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>96929.63011150289</v>
+        <v>133633.9426483421</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.58115403544777</v>
+        <v>91.36613335593776</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.09927230447322</v>
+        <v>125.0111744468674</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.40488561438811</v>
+        <v>113.0802834119766</v>
       </c>
       <c r="AD2" t="n">
-        <v>66581.15403544776</v>
+        <v>91366.13335593777</v>
       </c>
       <c r="AE2" t="n">
-        <v>91099.27230447321</v>
+        <v>125011.1744468674</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.949545764723797e-06</v>
+        <v>7.349299357631123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82404.88561438811</v>
+        <v>113080.2834119766</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.39130251970965</v>
+        <v>92.38156953862885</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.20775320186844</v>
+        <v>126.4005390299073</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.40757465069898</v>
+        <v>114.3370489891971</v>
       </c>
       <c r="AD2" t="n">
-        <v>67391.30251970966</v>
+        <v>92381.56953862886</v>
       </c>
       <c r="AE2" t="n">
-        <v>92207.75320186844</v>
+        <v>126400.5390299073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906242529096932e-06</v>
+        <v>7.214347427757472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83407.57465069898</v>
+        <v>114337.0489891971</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.53077829212434</v>
+        <v>95.36210477168314</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.13507834069428</v>
+        <v>130.4786388277044</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.05551998680288</v>
+        <v>118.0259406659427</v>
       </c>
       <c r="AD2" t="n">
-        <v>69530.77829212433</v>
+        <v>95362.10477168314</v>
       </c>
       <c r="AE2" t="n">
-        <v>95135.07834069428</v>
+        <v>130478.6388277044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648282268498025e-06</v>
+        <v>6.725006989283419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86055.51998680287</v>
+        <v>118025.9406659427</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.50604575669499</v>
+        <v>89.87881431086309</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.62826172705464</v>
+        <v>122.9761589135119</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.07426622190158</v>
+        <v>111.2394869049616</v>
       </c>
       <c r="AD2" t="n">
-        <v>65506.04575669498</v>
+        <v>89878.81431086309</v>
       </c>
       <c r="AE2" t="n">
-        <v>89628.26172705463</v>
+        <v>122976.1589135119</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04201726729016e-06</v>
+        <v>7.571519753987481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81074.26622190158</v>
+        <v>111239.4869049616</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.14915248152164</v>
+        <v>95.49657959527134</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.7717004860569</v>
+        <v>130.6626332139482</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.39489258004402</v>
+        <v>118.1923748862012</v>
       </c>
       <c r="AD2" t="n">
-        <v>64149.15248152163</v>
+        <v>95496.57959527134</v>
       </c>
       <c r="AE2" t="n">
-        <v>87771.7004860569</v>
+        <v>130662.6332139482</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016132211536435e-06</v>
+        <v>7.693476471404914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79394.89258004402</v>
+        <v>118192.3748862012</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.24361824793583</v>
+        <v>101.7460664077088</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.47866153340013</v>
+        <v>139.2134567786206</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.17543488883727</v>
+        <v>125.9271198510202</v>
       </c>
       <c r="AD2" t="n">
-        <v>71243.61824793582</v>
+        <v>101746.0664077088</v>
       </c>
       <c r="AE2" t="n">
-        <v>97478.66153340013</v>
+        <v>139213.4567786206</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.846629508593458e-06</v>
+        <v>7.572763005638533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88175.43488883728</v>
+        <v>125927.1198510202</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.26663463643172</v>
+        <v>122.7254154322547</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.0338153248371</v>
+        <v>167.9183276575472</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.7688336517655</v>
+        <v>151.8924381408105</v>
       </c>
       <c r="AD2" t="n">
-        <v>86266.63463643171</v>
+        <v>122725.4154322547</v>
       </c>
       <c r="AE2" t="n">
-        <v>118033.8153248371</v>
+        <v>167918.3276575472</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971909872640893e-06</v>
+        <v>6.472926722249746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>106768.8336517655</v>
+        <v>151892.4381408105</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.93001597711014</v>
+        <v>91.73635154875282</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.5766006037581</v>
+        <v>125.5177233111506</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.83665837072388</v>
+        <v>113.5384879635986</v>
       </c>
       <c r="AD2" t="n">
-        <v>66930.01597711015</v>
+        <v>91736.35154875282</v>
       </c>
       <c r="AE2" t="n">
-        <v>91576.6006037581</v>
+        <v>125517.7233111506</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.94773671817909e-06</v>
+        <v>7.309691254486066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>82836.65837072388</v>
+        <v>113538.4879635986</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.99861273866127</v>
+        <v>94.67090211535248</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.40694595295922</v>
+        <v>129.5329048596042</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.39687953221278</v>
+        <v>117.1704662204117</v>
       </c>
       <c r="AD2" t="n">
-        <v>68998.61273866126</v>
+        <v>94670.90211535248</v>
       </c>
       <c r="AE2" t="n">
-        <v>94406.94595295921</v>
+        <v>129532.9048596042</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.71515342659598e-06</v>
+        <v>6.847199710038717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85396.87953221278</v>
+        <v>117170.4662204117</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.8351381029594</v>
+        <v>152.4438705785049</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.2812815367138</v>
+        <v>208.5804290743356</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.9386469479942</v>
+        <v>188.6738056680114</v>
       </c>
       <c r="AD2" t="n">
-        <v>109835.1381029594</v>
+        <v>152443.8705785049</v>
       </c>
       <c r="AE2" t="n">
-        <v>150281.2815367138</v>
+        <v>208580.4290743356</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201885696007686e-06</v>
+        <v>5.337352689963096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>135938.6469479942</v>
+        <v>188673.8056680114</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.51938979058144</v>
+        <v>96.2042128392729</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.27827550602956</v>
+        <v>131.6308482369661</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.85312079109316</v>
+        <v>119.0681848263208</v>
       </c>
       <c r="AD2" t="n">
-        <v>64519.38979058144</v>
+        <v>96204.21283927289</v>
       </c>
       <c r="AE2" t="n">
-        <v>88278.27550602956</v>
+        <v>131630.8482369661</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061926293055319e-06</v>
+        <v>7.70377914406879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>79853.12079109316</v>
+        <v>119068.1848263209</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.03682259079442</v>
+        <v>90.62082690445928</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.35449400769039</v>
+        <v>123.991413279355</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.73118791294709</v>
+        <v>112.1578468190474</v>
       </c>
       <c r="AD2" t="n">
-        <v>66036.82259079441</v>
+        <v>90620.82690445927</v>
       </c>
       <c r="AE2" t="n">
-        <v>90354.49400769039</v>
+        <v>123991.413279355</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003327890433827e-06</v>
+        <v>7.469521713323953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81731.18791294709</v>
+        <v>112157.8468190474</v>
       </c>
     </row>
   </sheetData>
